--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2633733333333333</v>
+        <v>0.3275576666666667</v>
       </c>
       <c r="H2">
-        <v>0.7901199999999999</v>
+        <v>0.982673</v>
       </c>
       <c r="I2">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="J2">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="N2">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="O2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="P2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="Q2">
-        <v>0.9361242556044442</v>
+        <v>1.110561012239</v>
       </c>
       <c r="R2">
-        <v>8.425118300439999</v>
+        <v>9.995049110150999</v>
       </c>
       <c r="S2">
-        <v>0.008050679153229431</v>
+        <v>0.009497512479668334</v>
       </c>
       <c r="T2">
-        <v>0.008050679153229431</v>
+        <v>0.009497512479668336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2633733333333333</v>
+        <v>0.3275576666666667</v>
       </c>
       <c r="H3">
-        <v>0.7901199999999999</v>
+        <v>0.982673</v>
       </c>
       <c r="I3">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="J3">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.877361</v>
       </c>
       <c r="O3">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="P3">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="Q3">
-        <v>3.061922274813333</v>
+        <v>3.808115662883667</v>
       </c>
       <c r="R3">
-        <v>27.55730047332</v>
+        <v>34.273040965953</v>
       </c>
       <c r="S3">
-        <v>0.02633256608732135</v>
+        <v>0.03256698698556021</v>
       </c>
       <c r="T3">
-        <v>0.02633256608732135</v>
+        <v>0.03256698698556021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2633733333333333</v>
+        <v>0.3275576666666667</v>
       </c>
       <c r="H4">
-        <v>0.7901199999999999</v>
+        <v>0.982673</v>
       </c>
       <c r="I4">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="J4">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="N4">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="O4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="P4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="Q4">
-        <v>0.6296022934888887</v>
+        <v>1.489123556669445</v>
       </c>
       <c r="R4">
-        <v>5.666420641399999</v>
+        <v>13.402112010025</v>
       </c>
       <c r="S4">
-        <v>0.005414586822925145</v>
+        <v>0.01273497755402248</v>
       </c>
       <c r="T4">
-        <v>0.005414586822925145</v>
+        <v>0.01273497755402248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2633733333333333</v>
+        <v>0.3275576666666667</v>
       </c>
       <c r="H5">
-        <v>0.7901199999999999</v>
+        <v>0.982673</v>
       </c>
       <c r="I5">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="J5">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="N5">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="O5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="P5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="Q5">
-        <v>0.006872814924444443</v>
+        <v>0.007125034365333335</v>
       </c>
       <c r="R5">
-        <v>0.06185533431999999</v>
+        <v>0.064125309288</v>
       </c>
       <c r="S5">
-        <v>5.910628584290077E-05</v>
+        <v>6.093325990833186E-05</v>
       </c>
       <c r="T5">
-        <v>5.910628584290077E-05</v>
+        <v>6.093325990833186E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>15.556131</v>
       </c>
       <c r="I6">
-        <v>0.7847159345680752</v>
+        <v>0.8684635977749966</v>
       </c>
       <c r="J6">
-        <v>0.7847159345680751</v>
+        <v>0.8684635977749967</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="N6">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="O6">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="P6">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="Q6">
-        <v>18.430708692933</v>
+        <v>17.580652556733</v>
       </c>
       <c r="R6">
-        <v>165.876378236397</v>
+        <v>158.225873010597</v>
       </c>
       <c r="S6">
-        <v>0.1585043025699971</v>
+        <v>0.150349656811427</v>
       </c>
       <c r="T6">
-        <v>0.1585043025699971</v>
+        <v>0.1503496568114271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>15.556131</v>
       </c>
       <c r="I7">
-        <v>0.7847159345680752</v>
+        <v>0.8684635977749966</v>
       </c>
       <c r="J7">
-        <v>0.7847159345680751</v>
+        <v>0.8684635977749967</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>34.877361</v>
       </c>
       <c r="O7">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="P7">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="Q7">
         <v>60.284088516699</v>
@@ -883,10 +883,10 @@
         <v>542.5567966502911</v>
       </c>
       <c r="S7">
-        <v>0.5184438409615355</v>
+        <v>0.5155492374601415</v>
       </c>
       <c r="T7">
-        <v>0.5184438409615355</v>
+        <v>0.5155492374601416</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>15.556131</v>
       </c>
       <c r="I8">
-        <v>0.7847159345680752</v>
+        <v>0.8684635977749966</v>
       </c>
       <c r="J8">
-        <v>0.7847159345680751</v>
+        <v>0.8684635977749967</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="N8">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="O8">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="P8">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="Q8">
-        <v>12.395807922105</v>
+        <v>23.573458437075</v>
       </c>
       <c r="R8">
-        <v>111.562271298945</v>
+        <v>212.161125933675</v>
       </c>
       <c r="S8">
-        <v>0.1066040878958859</v>
+        <v>0.2016001041164591</v>
       </c>
       <c r="T8">
-        <v>0.1066040878958859</v>
+        <v>0.2016001041164592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>15.556131</v>
       </c>
       <c r="I9">
-        <v>0.7847159345680752</v>
+        <v>0.8684635977749966</v>
       </c>
       <c r="J9">
-        <v>0.7847159345680751</v>
+        <v>0.8684635977749967</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="N9">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="O9">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="P9">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="Q9">
-        <v>0.135314141274</v>
+        <v>0.112792320504</v>
       </c>
       <c r="R9">
-        <v>1.217827271466</v>
+        <v>1.015130884536</v>
       </c>
       <c r="S9">
-        <v>0.001163703140656622</v>
+        <v>0.0009645993869690714</v>
       </c>
       <c r="T9">
-        <v>0.001163703140656622</v>
+        <v>0.0009645993869690715</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5638536666666667</v>
+        <v>0.1537743333333333</v>
       </c>
       <c r="H10">
-        <v>1.691561</v>
+        <v>0.461323</v>
       </c>
       <c r="I10">
-        <v>0.08532937084381123</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="J10">
-        <v>0.0853293708438112</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="N10">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="O10">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="P10">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="Q10">
-        <v>2.004140234311889</v>
+        <v>0.5213609591890001</v>
       </c>
       <c r="R10">
-        <v>18.037262108807</v>
+        <v>4.692248632701</v>
       </c>
       <c r="S10">
-        <v>0.01723562861225628</v>
+        <v>0.004458676436269272</v>
       </c>
       <c r="T10">
-        <v>0.01723562861225628</v>
+        <v>0.004458676436269273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5638536666666667</v>
+        <v>0.1537743333333333</v>
       </c>
       <c r="H11">
-        <v>1.691561</v>
+        <v>0.461323</v>
       </c>
       <c r="I11">
-        <v>0.08532937084381123</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="J11">
-        <v>0.0853293708438112</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>34.877361</v>
       </c>
       <c r="O11">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="P11">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="Q11">
-        <v>6.555242627835668</v>
+        <v>1.787747645400334</v>
       </c>
       <c r="R11">
-        <v>58.997183650521</v>
+        <v>16.089728808603</v>
       </c>
       <c r="S11">
-        <v>0.05637516051135955</v>
+        <v>0.01528880933651336</v>
       </c>
       <c r="T11">
-        <v>0.05637516051135954</v>
+        <v>0.01528880933651336</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5638536666666667</v>
+        <v>0.1537743333333333</v>
       </c>
       <c r="H12">
-        <v>1.691561</v>
+        <v>0.461323</v>
       </c>
       <c r="I12">
-        <v>0.08532937084381123</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="J12">
-        <v>0.0853293708438112</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="N12">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="O12">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="P12">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="Q12">
-        <v>1.347910045532778</v>
+        <v>0.6990799040305556</v>
       </c>
       <c r="R12">
-        <v>12.131190409795</v>
+        <v>6.291719136275002</v>
       </c>
       <c r="S12">
-        <v>0.01159204158959916</v>
+        <v>0.005978528004895129</v>
       </c>
       <c r="T12">
-        <v>0.01159204158959915</v>
+        <v>0.00597852800489513</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5638536666666667</v>
+        <v>0.1537743333333333</v>
       </c>
       <c r="H13">
-        <v>1.691561</v>
+        <v>0.461323</v>
       </c>
       <c r="I13">
-        <v>0.08532937084381123</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="J13">
-        <v>0.0853293708438112</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="N13">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="O13">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="P13">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="Q13">
-        <v>0.01471394938288889</v>
+        <v>0.003344899298666667</v>
       </c>
       <c r="R13">
-        <v>0.132425544446</v>
+        <v>0.03010409368800001</v>
       </c>
       <c r="S13">
-        <v>0.0001265401305962424</v>
+        <v>2.860556284816147E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001265401305962424</v>
+        <v>2.860556284816147E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.595363</v>
+        <v>0.3040386666666667</v>
       </c>
       <c r="H14">
-        <v>1.786089</v>
+        <v>0.9121160000000001</v>
       </c>
       <c r="I14">
-        <v>0.09009775623879478</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="J14">
-        <v>0.09009775623879476</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="N14">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="O14">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="P14">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="Q14">
-        <v>2.116135821860333</v>
+        <v>1.030821512588</v>
       </c>
       <c r="R14">
-        <v>19.045222396743</v>
+        <v>9.277393613292</v>
       </c>
       <c r="S14">
-        <v>0.01819879192795069</v>
+        <v>0.008815580658983368</v>
       </c>
       <c r="T14">
-        <v>0.01819879192795069</v>
+        <v>0.00881558065898337</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.595363</v>
+        <v>0.3040386666666667</v>
       </c>
       <c r="H15">
-        <v>1.786089</v>
+        <v>0.9121160000000001</v>
       </c>
       <c r="I15">
-        <v>0.09009775623879478</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="J15">
-        <v>0.09009775623879476</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>34.877361</v>
       </c>
       <c r="O15">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="P15">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="Q15">
-        <v>6.921563425681001</v>
+        <v>3.534688778430668</v>
       </c>
       <c r="R15">
-        <v>62.29407083112901</v>
+        <v>31.81219900587601</v>
       </c>
       <c r="S15">
-        <v>0.05952552350318649</v>
+        <v>0.03022864157387171</v>
       </c>
       <c r="T15">
-        <v>0.0595255235031865</v>
+        <v>0.03022864157387171</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.595363</v>
+        <v>0.3040386666666667</v>
       </c>
       <c r="H16">
-        <v>1.786089</v>
+        <v>0.9121160000000001</v>
       </c>
       <c r="I16">
-        <v>0.09009775623879478</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="J16">
-        <v>0.09009775623879476</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="N16">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="O16">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="P16">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="Q16">
-        <v>1.423234104661667</v>
+        <v>1.382202850811111</v>
       </c>
       <c r="R16">
-        <v>12.809106941955</v>
+        <v>12.4398256573</v>
       </c>
       <c r="S16">
-        <v>0.01223982934740489</v>
+        <v>0.01182059218749754</v>
       </c>
       <c r="T16">
-        <v>0.01223982934740489</v>
+        <v>0.01182059218749754</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.595363</v>
+        <v>0.3040386666666667</v>
       </c>
       <c r="H17">
-        <v>1.786089</v>
+        <v>0.9121160000000001</v>
       </c>
       <c r="I17">
-        <v>0.09009775623879478</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="J17">
-        <v>0.09009775623879476</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="N17">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="O17">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="P17">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="Q17">
-        <v>0.01553619593933333</v>
+        <v>0.006613449077333336</v>
       </c>
       <c r="R17">
-        <v>0.139825763454</v>
+        <v>0.05952104169600002</v>
       </c>
       <c r="S17">
-        <v>0.0001336114602526968</v>
+        <v>5.655818496544428E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001336114602526968</v>
+        <v>5.655818496544428E-05</v>
       </c>
     </row>
   </sheetData>
